--- a/Antonio-Feed/Wiring Harnesses/24 Wiring Harness Purchase List.xlsx
+++ b/Antonio-Feed/Wiring Harnesses/24 Wiring Harness Purchase List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/ATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F29C4-7151-9B46-876C-CDB0B981EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381980C-C7C9-A240-B17D-30E95F1F652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="3580" windowWidth="26840" windowHeight="15940" xr2:uid="{B7581F8B-FBB3-FE44-A1BE-D6175DDC55C2}"/>
   </bookViews>
@@ -734,12 +734,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBFA7F6-4C29-8243-A146-4968FEAA4F4E}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1094,10 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1121,8 +1121,8 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1146,8 +1146,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1170,8 +1170,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1194,8 +1194,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1218,8 +1218,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1242,8 +1242,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1266,8 +1266,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1290,8 +1290,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1314,8 +1314,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1338,8 +1338,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1362,8 +1362,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1386,8 +1386,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1407,8 +1407,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1431,8 +1431,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1473,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1497,8 +1497,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
         <v>196</v>
       </c>
@@ -1611,12 +1611,12 @@
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="4" t="s">
         <v>106</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="4" t="s">
         <v>107</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="4" t="s">
         <v>108</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="4" t="s">
         <v>110</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1840,7 +1840,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="4" t="s">
         <v>84</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
@@ -1986,7 +1986,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -2034,7 +2034,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="4" t="s">
         <v>128</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="4" t="s">
         <v>98</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="4" t="s">
         <v>184</v>
       </c>
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="4" t="s">
         <v>73</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="4" t="s">
         <v>197</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="4" t="s">
         <v>74</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -2259,8 +2259,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -2283,8 +2283,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -2307,7 +2307,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="4" t="s">
         <v>134</v>
       </c>
@@ -2331,8 +2331,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C55" t="s">
@@ -2352,7 +2352,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4" t="s">
         <v>154</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="4" t="s">
         <v>152</v>
       </c>
@@ -2394,8 +2394,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C58" t="s">
@@ -2418,10 +2418,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C59" t="s">
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="4" t="s">
         <v>137</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="4" t="s">
         <v>141</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="4" t="s">
         <v>144</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="G65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <f>SUM(H2:H63)</f>
         <v>4896.0200000000004</v>
       </c>
